--- a/product/src/data/users.xlsx
+++ b/product/src/data/users.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/product/src/data/users.xlsx
+++ b/product/src/data/users.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\lottery\product\src\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="804">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2322,12 +2317,132 @@
   </si>
   <si>
     <t>380</t>
+  </si>
+  <si>
+    <t>000381</t>
+  </si>
+  <si>
+    <t>000382</t>
+  </si>
+  <si>
+    <t>000383</t>
+  </si>
+  <si>
+    <t>000384</t>
+  </si>
+  <si>
+    <t>000385</t>
+  </si>
+  <si>
+    <t>000386</t>
+  </si>
+  <si>
+    <t>000387</t>
+  </si>
+  <si>
+    <t>000388</t>
+  </si>
+  <si>
+    <t>000389</t>
+  </si>
+  <si>
+    <t>000390</t>
+  </si>
+  <si>
+    <t>000391</t>
+  </si>
+  <si>
+    <t>000392</t>
+  </si>
+  <si>
+    <t>000393</t>
+  </si>
+  <si>
+    <t>000394</t>
+  </si>
+  <si>
+    <t>000395</t>
+  </si>
+  <si>
+    <t>000396</t>
+  </si>
+  <si>
+    <t>000397</t>
+  </si>
+  <si>
+    <t>000398</t>
+  </si>
+  <si>
+    <t>000399</t>
+  </si>
+  <si>
+    <t>000400</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2714,7 +2829,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2722,10 +2837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C381"/>
+  <dimension ref="A1:C401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="E378" sqref="E378"/>
+    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
+      <selection activeCell="E394" sqref="E394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -6924,6 +7039,226 @@
         <v>603</v>
       </c>
     </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A388" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A390" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A392" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A393" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A394" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A395" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A396" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A397" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A398" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A399" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A400" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
